--- a/HERNANDEZ, RODERICK.xlsx
+++ b/HERNANDEZ, RODERICK.xlsx
@@ -1,44 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFB6633-946D-4539-88B8-31F90CE4BBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840EA9D2-3A56-472B-B497-4D329D8871E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="CASUAL BELOW 2017" sheetId="1" r:id="rId1"/>
-    <sheet name="CASUAL 2018" sheetId="4" r:id="rId2"/>
+    <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
+    <sheet name="2017 LEAVE BALANCE" sheetId="1" r:id="rId2"/>
     <sheet name="CONVERTION" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="1">Table13[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="0">Table13[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'CASUAL 2018'!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'CASUAL BELOW 2017'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -577,27 +569,6 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -905,6 +876,27 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1091,25 +1083,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{678EE8E7-860A-48E2-8B53-510771D026DA}" name="Table13" displayName="Table13" ref="A8:K95" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="21">
-      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{EB5DBD22-5D81-417D-80CD-41E942E9952D}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C4AA355E-8C46-4BAE-AE30-EFD918D4B9E0}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E21CD8FD-C76F-46AC-8BD7-67732313979E}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{6FC9A8A4-0BC7-43E6-8315-570E22588A02}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{DFD0778E-F6A5-4472-8A0A-4F1122AEE218}" name="BALANCE" dataDxfId="6">
+      <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="0">
-      <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{CBCD9674-0572-420C-8DB2-2A3DB0E9A099}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{35E08218-E623-4544-BF0D-E7CF61DB945C}" name="EARNED " dataDxfId="4">
+      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="18">
-      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{E46F5910-107D-433F-9F9B-740597CB2F3B}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{72BDA877-DC7D-4274-8B26-59718F16C575}" name="BALANCE " dataDxfId="2">
+      <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{DE067FEF-1883-4A57-B5E8-6CABAAADCACE}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{5914F339-7EF2-4E6E-BF95-5B5A3CD14EFD}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1121,25 +1113,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{678EE8E7-860A-48E2-8B53-510771D026DA}" name="Table13" displayName="Table13" ref="A8:K95" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EB5DBD22-5D81-417D-80CD-41E942E9952D}" name="PERIOD" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{C4AA355E-8C46-4BAE-AE30-EFD918D4B9E0}" name="PARTICULARS" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E21CD8FD-C76F-46AC-8BD7-67732313979E}" name="EARNED" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{6FC9A8A4-0BC7-43E6-8315-570E22588A02}" name="Absence Undertime W/ Pay" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{DFD0778E-F6A5-4472-8A0A-4F1122AEE218}" name="BALANCE" dataDxfId="7">
-      <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="21">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CBCD9674-0572-420C-8DB2-2A3DB0E9A099}" name="Absence Undertime W/O Pay" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{35E08218-E623-4544-BF0D-E7CF61DB945C}" name="EARNED " dataDxfId="5">
-      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="19">
+      <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E46F5910-107D-433F-9F9B-740597CB2F3B}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{72BDA877-DC7D-4274-8B26-59718F16C575}" name="BALANCE " dataDxfId="3">
-      <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="17">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DE067FEF-1883-4A57-B5E8-6CABAAADCACE}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{5914F339-7EF2-4E6E-BF95-5B5A3CD14EFD}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1446,14 +1438,1891 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8305A4E6-EECB-4C81-80EB-2A108CD8C449}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K95"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A10" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="51">
+        <v>36696</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="H5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14">
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
+        <v>51.25</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14">
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
+        <v>76.25</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>43101</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>43132</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>43160</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>43191</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>43221</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>43252</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>43282</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>43313</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>43344</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>43374</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>43405</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>43435</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="12">
+        <v>5</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>43466</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>43497</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>43525</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>43556</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
+        <v>43586</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>43617</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
+        <v>43647</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
+        <v>43678</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
+        <v>43709</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
+        <v>43739</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
+        <v>43770</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>43800</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="12">
+        <v>5</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
+        <v>43831</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
+        <v>43862</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
+        <v>43891</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
+        <v>43952</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="24">
+        <v>43983</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="24">
+        <v>44013</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
+        <v>44044</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
+        <v>44075</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
+        <v>44105</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
+        <v>44136</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
+        <v>44166</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D48" s="13">
+        <v>5</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="24">
+        <v>44197</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
+        <v>44228</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
+        <v>44256</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
+        <v>44287</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
+        <v>44317</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
+        <v>44348</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="24">
+        <v>44378</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="24">
+        <v>44440</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="24">
+        <v>44470</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="24">
+        <v>44501</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="24">
+        <v>44531</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="12">
+        <v>5</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
+        <v>44562</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="39">
+        <v>44593</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="39">
+        <v>44621</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="39">
+        <v>44652</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="40"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H66" s="40"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="39">
+        <v>44682</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="40"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H67" s="40"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="39">
+        <v>44713</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="40"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="40"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="24">
+        <v>44767</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="40"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="40"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="39">
+        <v>44774</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="40"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H70" s="40"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="39">
+        <v>44805</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="C71" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D71" s="40"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="40"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="39">
+        <v>44835</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="40"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H72" s="40"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="39">
+        <v>44866</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="40"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="40"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="39">
+        <v>44896</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="40">
+        <v>5</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H74" s="40"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="39"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="40"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="41"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="43"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="39"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="40"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="39"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="40"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="40"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="39"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="40"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="39"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="40"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="39"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="40"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="39"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="40"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="39"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="40"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="39"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="40"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="39"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="40"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="39"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="40"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="39"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="40"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="39"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="40"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="39"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="40"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="21"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="39"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="40"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="21"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="39"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="40"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="21"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="40"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="39"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="40"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="41"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="43"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{E38E06E7-2C09-454C-901F-FFE94A835FA3}">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{DADF744B-77F1-46F4-9ACA-01916A004212}">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
+CITY OF TAGAYTAY
+EMPLOYEE'S LEAVE CARD</oddHeader>
+    <oddFooter>&amp;L
+PREPARED BY: ___________________
+DATE: &amp;D, &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2755,1888 +4624,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8305A4E6-EECB-4C81-80EB-2A108CD8C449}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:K95"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="51">
-        <v>36696</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="H5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>113.30500000000001</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14">
-        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>204.75</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>43101</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>43132</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>43160</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>43191</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>43221</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>43252</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>43282</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>43313</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>43344</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>43374</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
-        <v>43405</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
-        <v>43435</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="12">
-        <v>5</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
-        <v>43466</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
-        <v>43497</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
-        <v>43525</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
-        <v>43556</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
-        <v>43586</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>43617</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
-        <v>43647</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
-        <v>43678</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
-        <v>43709</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
-        <v>43739</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
-        <v>43770</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
-        <v>43800</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D35" s="12">
-        <v>5</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24">
-        <v>43831</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
-        <v>43862</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="24">
-        <v>43891</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
-        <v>43922</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="24">
-        <v>43952</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="24">
-        <v>43983</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="24">
-        <v>44013</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
-        <v>44044</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
-        <v>44075</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
-        <v>44105</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="24">
-        <v>44136</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
-        <v>44166</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D48" s="13">
-        <v>5</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="24">
-        <v>44197</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
-        <v>44228</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="24">
-        <v>44256</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="24">
-        <v>44287</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="24">
-        <v>44317</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="24">
-        <v>44348</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="24">
-        <v>44378</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="24">
-        <v>44409</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="24">
-        <v>44440</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="16"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="24">
-        <v>44470</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="24">
-        <v>44501</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>44531</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D61" s="12">
-        <v>5</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
-        <v>44562</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="39">
-        <v>44593</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="39">
-        <v>44621</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H65" s="40"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="39">
-        <v>44652</v>
-      </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="39">
-        <v>44682</v>
-      </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H67" s="40"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="39">
-        <v>44713</v>
-      </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H68" s="40"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="24">
-        <v>44767</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H69" s="40"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="39">
-        <v>44774</v>
-      </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H70" s="40"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="21"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="39">
-        <v>44805</v>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="39">
-        <v>44835</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="39">
-        <v>44866</v>
-      </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H73" s="40"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="21"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="39">
-        <v>44896</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D74" s="40">
-        <v>5</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="40"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="43"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="16"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="40"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="40"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="40"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="40"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="40"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="40"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="40"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="40"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="40"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="40"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="40"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="40"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="39"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="40"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="39"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="40"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="39"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="40"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="39"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="40"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="40"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="39"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="40"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="41"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="43"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{E38E06E7-2C09-454C-901F-FFE94A835FA3}">
-      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{DADF744B-77F1-46F4-9ACA-01916A004212}">
-      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
-CITY OF TAGAYTAY
-EMPLOYEE'S LEAVE CARD</oddHeader>
-    <oddFooter>&amp;L
-PREPARED BY: ___________________
-DATE: &amp;D, &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6DF311-E85D-4C54-A4E0-780068B65759}">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/HERNANDEZ, RODERICK.xlsx
+++ b/HERNANDEZ, RODERICK.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840EA9D2-3A56-472B-B497-4D329D8871E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>PERIOD</t>
   </si>
@@ -176,11 +175,17 @@
   <si>
     <t>12/19-20, 27</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -404,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,9 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -545,11 +547,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -557,17 +556,267 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -795,249 +1044,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1083,25 +1089,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{678EE8E7-860A-48E2-8B53-510771D026DA}" name="Table13" displayName="Table13" ref="A8:K95" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K95" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EB5DBD22-5D81-417D-80CD-41E942E9952D}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C4AA355E-8C46-4BAE-AE30-EFD918D4B9E0}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E21CD8FD-C76F-46AC-8BD7-67732313979E}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6FC9A8A4-0BC7-43E6-8315-570E22588A02}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{DFD0778E-F6A5-4472-8A0A-4F1122AEE218}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CBCD9674-0572-420C-8DB2-2A3DB0E9A099}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{35E08218-E623-4544-BF0D-E7CF61DB945C}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E46F5910-107D-433F-9F9B-740597CB2F3B}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{72BDA877-DC7D-4274-8B26-59718F16C575}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DE067FEF-1883-4A57-B5E8-6CABAAADCACE}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{5914F339-7EF2-4E6E-BF95-5B5A3CD14EFD}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1113,25 +1119,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1438,94 +1444,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8305A4E6-EECB-4C81-80EB-2A108CD8C449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A10" activePane="bottomLeft"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="49">
         <v>36696</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1533,7 +1539,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1546,24 +1552,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1622,7 +1628,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>35</v>
       </c>
@@ -1646,7 +1652,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1666,7 +1672,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1686,7 +1692,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1706,7 +1712,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1726,7 +1732,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1746,7 +1752,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1766,7 +1772,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1786,7 +1792,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1806,7 +1812,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1826,7 +1832,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1846,7 +1852,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1866,7 +1872,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -1890,7 +1896,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>36</v>
       </c>
@@ -1908,7 +1914,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -1928,7 +1934,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -1948,7 +1954,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -1968,7 +1974,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -1988,7 +1994,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2008,7 +2014,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2028,7 +2034,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2048,7 +2054,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2068,7 +2074,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2088,7 +2094,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2108,7 +2114,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2128,7 +2134,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2152,7 +2158,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>37</v>
       </c>
@@ -2170,7 +2176,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2190,7 +2196,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2210,7 +2216,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2230,7 +2236,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2250,7 +2256,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2270,7 +2276,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2290,7 +2296,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2310,7 +2316,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2330,7 +2336,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2350,7 +2356,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2370,7 +2376,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2390,7 +2396,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2414,7 +2420,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>38</v>
       </c>
@@ -2432,7 +2438,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2452,7 +2458,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2472,7 +2478,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2492,7 +2498,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2512,7 +2518,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2532,7 +2538,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2552,7 +2558,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2572,7 +2578,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2592,7 +2598,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2612,7 +2618,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2632,7 +2638,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2652,7 +2658,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2676,7 +2682,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
         <v>39</v>
       </c>
@@ -2694,7 +2700,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2714,7 +2720,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>44593</v>
       </c>
@@ -2734,7 +2740,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>44621</v>
       </c>
@@ -2754,7 +2760,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>44652</v>
       </c>
@@ -2774,7 +2780,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>44682</v>
       </c>
@@ -2794,7 +2800,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>44713</v>
       </c>
@@ -2814,7 +2820,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44767</v>
       </c>
@@ -2834,7 +2840,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>44774</v>
       </c>
@@ -2854,7 +2860,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>44805</v>
       </c>
@@ -2874,7 +2880,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>44835</v>
       </c>
@@ -2894,7 +2900,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>44866</v>
       </c>
@@ -2914,7 +2920,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>44896</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
@@ -2956,7 +2962,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="16"/>
       <c r="C76" s="42"/>
@@ -2972,7 +2978,7 @@
       <c r="J76" s="13"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="21"/>
       <c r="C77" s="14"/>
@@ -2988,7 +2994,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
@@ -3004,7 +3010,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -3020,7 +3026,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -3036,7 +3042,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
@@ -3052,7 +3058,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
@@ -3068,7 +3074,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
@@ -3084,7 +3090,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -3100,7 +3106,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -3116,7 +3122,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -3132,7 +3138,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -3148,7 +3154,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -3164,7 +3170,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -3180,7 +3186,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -3196,7 +3202,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -3212,7 +3218,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -3228,7 +3234,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -3244,7 +3250,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -3260,7 +3266,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="16"/>
       <c r="C95" s="42"/>
@@ -3278,23 +3284,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{E38E06E7-2C09-454C-901F-FFE94A835FA3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{DADF744B-77F1-46F4-9ACA-01916A004212}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3315,93 +3321,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="49">
         <v>36696</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3409,7 +3415,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -3422,24 +3428,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -3493,12 +3499,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>120.5</v>
+        <v>119.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>39</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44767</v>
       </c>
@@ -3544,8 +3550,10 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>46</v>
+      </c>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="12"/>
@@ -3560,9 +3568,13 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="12"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>44986</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
@@ -3571,12 +3583,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="54">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
@@ -3592,7 +3608,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
@@ -3608,7 +3624,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
@@ -3624,7 +3640,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
@@ -3640,7 +3656,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
@@ -3656,7 +3672,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
@@ -3672,7 +3688,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
@@ -3688,7 +3704,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
@@ -3704,7 +3720,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
@@ -3720,7 +3736,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -3736,7 +3752,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
@@ -3752,7 +3768,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
@@ -3768,7 +3784,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
@@ -3784,7 +3800,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
@@ -3800,7 +3816,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
@@ -3816,7 +3832,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
@@ -3832,7 +3848,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
@@ -3848,7 +3864,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
@@ -3864,7 +3880,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
@@ -3880,7 +3896,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
@@ -3896,7 +3912,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
@@ -3912,7 +3928,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -3928,7 +3944,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
@@ -3944,7 +3960,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="12"/>
       <c r="C37" s="14"/>
@@ -3960,7 +3976,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="12"/>
       <c r="C38" s="14"/>
@@ -3976,7 +3992,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
@@ -3992,7 +4008,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
@@ -4008,7 +4024,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
@@ -4024,7 +4040,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
@@ -4040,7 +4056,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
@@ -4056,7 +4072,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -4072,7 +4088,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -4088,7 +4104,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -4104,7 +4120,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -4120,7 +4136,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -4136,7 +4152,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -4152,7 +4168,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4168,7 +4184,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4184,7 +4200,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4200,7 +4216,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4216,7 +4232,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4232,7 +4248,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4248,7 +4264,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4264,7 +4280,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4280,7 +4296,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4296,7 +4312,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -4312,7 +4328,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -4328,7 +4344,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -4344,7 +4360,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -4360,7 +4376,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4376,7 +4392,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="21"/>
       <c r="C64" s="14"/>
@@ -4392,7 +4408,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="21"/>
       <c r="C65" s="14"/>
@@ -4408,7 +4424,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="21"/>
       <c r="C66" s="14"/>
@@ -4424,7 +4440,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="21"/>
       <c r="C67" s="14"/>
@@ -4440,7 +4456,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="21"/>
       <c r="C68" s="14"/>
@@ -4456,7 +4472,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="21"/>
       <c r="C69" s="14"/>
@@ -4472,7 +4488,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="21"/>
       <c r="C70" s="14"/>
@@ -4488,7 +4504,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="21"/>
       <c r="C71" s="14"/>
@@ -4504,7 +4520,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="21"/>
       <c r="C72" s="14"/>
@@ -4520,7 +4536,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="21"/>
       <c r="C73" s="14"/>
@@ -4536,7 +4552,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="21"/>
       <c r="C74" s="14"/>
@@ -4552,7 +4568,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
@@ -4568,7 +4584,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="16"/>
       <c r="C76" s="42"/>
@@ -4599,10 +4615,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4625,24 +4641,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6DF311-E85D-4C54-A4E0-780068B65759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>42</v>
       </c>
@@ -4654,7 +4670,7 @@
       <c r="F1" s="52"/>
       <c r="G1" s="52"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -4674,7 +4690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>62.055</v>
       </c>
@@ -4689,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -4700,7 +4716,7 @@
       </c>
       <c r="G4" s="34"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -4714,7 +4730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -4728,7 +4744,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -4742,7 +4758,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -4756,7 +4772,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -4770,7 +4786,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -4784,7 +4800,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -4798,7 +4814,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -4812,7 +4828,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -4826,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -4834,7 +4850,7 @@
         <v>1.9000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -4842,7 +4858,7 @@
         <v>2.1000000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -4850,7 +4866,7 @@
         <v>2.3000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -4859,7 +4875,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -4868,7 +4884,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -4877,7 +4893,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -4886,7 +4902,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -4895,7 +4911,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -4904,7 +4920,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -4913,7 +4929,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -4922,7 +4938,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -4931,7 +4947,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -4940,7 +4956,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -4949,7 +4965,7 @@
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -4958,7 +4974,7 @@
       </c>
       <c r="G29"/>
     </row>
-    <row r="30" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -4967,7 +4983,7 @@
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -4976,7 +4992,7 @@
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -4985,7 +5001,7 @@
       </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -4994,7 +5010,7 @@
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -5003,7 +5019,7 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -5012,7 +5028,7 @@
       </c>
       <c r="G35"/>
     </row>
-    <row r="36" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -5021,7 +5037,7 @@
       </c>
       <c r="G36"/>
     </row>
-    <row r="37" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -5030,7 +5046,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -5039,7 +5055,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -5048,7 +5064,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -5057,7 +5073,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -5066,7 +5082,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -5075,7 +5091,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -5084,7 +5100,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -5093,7 +5109,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -5102,7 +5118,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -5111,7 +5127,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -5120,7 +5136,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -5129,7 +5145,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -5138,7 +5154,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -5147,7 +5163,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -5156,7 +5172,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -5165,7 +5181,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -5174,7 +5190,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -5183,7 +5199,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -5192,7 +5208,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -5201,7 +5217,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -5210,7 +5226,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -5219,7 +5235,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -5228,7 +5244,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -5237,7 +5253,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -5246,7 +5262,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -5255,7 +5271,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -5264,7 +5280,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -5273,7 +5289,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -5282,7 +5298,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
